--- a/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_5mi.xlsx
+++ b/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_5mi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -71,40 +71,28 @@
     <t xml:space="preserve">total_risk_resp</t>
   </si>
   <si>
-    <t xml:space="preserve">DAIKIN AMERICA INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECATUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284.138128274564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.708486897389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMOURS EL DORADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL DORADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">422.192389752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8364722186388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMOURS LOUISVILLE WORKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOUISVILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.555980630485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1581.65337001664</t>
+    <t xml:space="preserve">Daikin America Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decatur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours El Dorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Dorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours Chambers Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours Louisville Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisville</t>
   </si>
   <si>
     <t xml:space="preserve">Iofina Chemical Inc.</t>
@@ -113,70 +101,34 @@
     <t xml:space="preserve">Covington</t>
   </si>
   <si>
-    <t xml:space="preserve">119.931178899633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1463.7894966989</t>
-  </si>
-  <si>
     <t xml:space="preserve">ARKEMA, INC.</t>
   </si>
   <si>
-    <t xml:space="preserve">CALVERT CITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.196602297996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.9931619405725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HONEYWELL INTERNATIONAL INC - GEISMAR COMPLEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEISMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228.365522556404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.131183257197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEXICHEM FLUOR INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINT GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206.749916306705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.188690364466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISLECHEM LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAND ISLAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.1518555780108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1060.30847214928</t>
+    <t xml:space="preserve">Calvert City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honeywell International - Geismar Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geismar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexichem Fluor Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islechem LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Island</t>
   </si>
   <si>
     <t xml:space="preserve">Chemours - Corpus Christi Plant</t>
   </si>
   <si>
     <t xml:space="preserve">Gregory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">334.263994048958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.529571338708</t>
   </si>
 </sst>
 </file>
@@ -580,14 +532,14 @@
       <c r="D2" t="n">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
+      <c r="E2" t="n">
+        <v>284.138128274564</v>
       </c>
       <c r="F2" t="n">
         <v>53051</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
+      <c r="G2" t="n">
+        <v>186.708486897389</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -628,10 +580,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>66990</v>
@@ -639,14 +591,14 @@
       <c r="D3" t="n">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
+      <c r="E3" t="n">
+        <v>422.192389752563</v>
       </c>
       <c r="F3" t="n">
         <v>8797</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
+      <c r="G3" t="n">
+        <v>20.8364722186388</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -687,410 +639,469 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>3707770</v>
+        <v>2619</v>
       </c>
       <c r="D4" t="n">
-        <v>188</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="E4" t="n">
+        <v>140.908502645324</v>
       </c>
       <c r="F4" t="n">
-        <v>203331</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
+        <v>86712</v>
+      </c>
+      <c r="G4" t="n">
+        <v>615.378052935953</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.016</v>
+        <v>0.23</v>
       </c>
       <c r="J4" t="n">
-        <v>102835</v>
+        <v>46412</v>
       </c>
       <c r="K4" t="n">
-        <v>88097</v>
+        <v>32532</v>
       </c>
       <c r="L4" t="n">
-        <v>487</v>
+        <v>263</v>
       </c>
       <c r="M4" t="n">
-        <v>3577</v>
+        <v>1857</v>
       </c>
       <c r="N4" t="n">
-        <v>9205</v>
+        <v>11099</v>
       </c>
       <c r="O4" t="n">
-        <v>36.6684770114943</v>
+        <v>53.0347246376812</v>
       </c>
       <c r="P4" t="n">
-        <v>12.486207688811</v>
+        <v>9.19041479039809</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.6084983177459</v>
+        <v>10.1818382334019</v>
       </c>
       <c r="R4" t="n">
-        <v>30.3208556149733</v>
+        <v>39</v>
       </c>
       <c r="S4" t="n">
-        <v>0.429411764705882</v>
+        <v>0.365714285714286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5"/>
+        <v>26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3707770</v>
+      </c>
       <c r="D5" t="n">
-        <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
+        <v>188</v>
+      </c>
+      <c r="E5" t="n">
+        <v>128.555980630485</v>
       </c>
       <c r="F5" t="n">
-        <v>175554</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+        <v>203331</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1581.65337001664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.091</v>
+        <v>0.016</v>
       </c>
       <c r="J5" t="n">
-        <v>158873</v>
+        <v>102835</v>
       </c>
       <c r="K5" t="n">
-        <v>7479</v>
+        <v>88097</v>
       </c>
       <c r="L5" t="n">
-        <v>278</v>
+        <v>487</v>
       </c>
       <c r="M5" t="n">
-        <v>2452</v>
+        <v>3577</v>
       </c>
       <c r="N5" t="n">
-        <v>5971</v>
+        <v>9205</v>
       </c>
       <c r="O5" t="n">
-        <v>64.9617889908257</v>
+        <v>36.6684770114943</v>
       </c>
       <c r="P5" t="n">
-        <v>5.81435262743146</v>
+        <v>12.486207688811</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.80743447224533</v>
+        <v>14.6084983177459</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>30.3208556149733</v>
       </c>
       <c r="S5" t="n">
-        <v>0.393636363636364</v>
+        <v>0.429411764705882</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="n">
-        <v>843010</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C6"/>
       <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
+        <v>110</v>
+      </c>
+      <c r="E6" t="n">
+        <v>119.931178899633</v>
       </c>
       <c r="F6" t="n">
-        <v>13612</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
+        <v>175554</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1463.7894966989</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.091</v>
       </c>
       <c r="J6" t="n">
-        <v>13385</v>
+        <v>158873</v>
       </c>
       <c r="K6" t="n">
-        <v>77</v>
+        <v>7479</v>
       </c>
       <c r="L6" t="n">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>2452</v>
       </c>
       <c r="N6" t="n">
-        <v>384</v>
+        <v>5971</v>
       </c>
       <c r="O6" t="n">
-        <v>57.363</v>
+        <v>64.9617889908257</v>
       </c>
       <c r="P6" t="n">
-        <v>6.63943958765135</v>
+        <v>5.81435262743146</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.02491570842668</v>
+        <v>6.80743447224533</v>
       </c>
       <c r="R6" t="n">
-        <v>33.6363636363636</v>
+        <v>30</v>
       </c>
       <c r="S6" t="n">
-        <v>1.26363636363636</v>
+        <v>0.393636363636364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>413584</v>
+        <v>843010</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200.196602297996</v>
       </c>
       <c r="F7" t="n">
-        <v>38167</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
+        <v>13612</v>
+      </c>
+      <c r="G7" t="n">
+        <v>67.9931619405725</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>23475</v>
+        <v>13385</v>
       </c>
       <c r="K7" t="n">
-        <v>13551</v>
+        <v>77</v>
       </c>
       <c r="L7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M7" t="n">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>1091</v>
+        <v>384</v>
       </c>
       <c r="O7" t="n">
-        <v>67.4632307692308</v>
+        <v>57.363</v>
       </c>
       <c r="P7" t="n">
-        <v>6.08715442194185</v>
+        <v>6.63943958765135</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.24084657418216</v>
+        <v>4.02491570842668</v>
       </c>
       <c r="R7" t="n">
-        <v>115.714285714286</v>
+        <v>33.6363636363636</v>
       </c>
       <c r="S7" t="n">
-        <v>0.55</v>
+        <v>1.26363636363636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>18331</v>
+        <v>413584</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>228.365522556404</v>
       </c>
       <c r="F8" t="n">
-        <v>28984</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
+        <v>38167</v>
+      </c>
+      <c r="G8" t="n">
+        <v>167.131183257197</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="J8" t="n">
-        <v>16679</v>
+        <v>23475</v>
       </c>
       <c r="K8" t="n">
-        <v>11671</v>
+        <v>13551</v>
       </c>
       <c r="L8" t="n">
         <v>26</v>
       </c>
       <c r="M8" t="n">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="N8" t="n">
-        <v>722</v>
+        <v>1091</v>
       </c>
       <c r="O8" t="n">
-        <v>65.1825</v>
+        <v>67.4632307692308</v>
       </c>
       <c r="P8" t="n">
-        <v>5.5361169432872</v>
+        <v>6.08715442194185</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.3293309509454</v>
+        <v>3.24084657418216</v>
       </c>
       <c r="R8" t="n">
-        <v>124.545454545455</v>
+        <v>115.714285714286</v>
       </c>
       <c r="S8" t="n">
-        <v>0.563636363636364</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9"/>
+        <v>34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18331</v>
+      </c>
       <c r="D9" t="n">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>206.749916306705</v>
       </c>
       <c r="F9" t="n">
-        <v>86046</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
+        <v>28984</v>
+      </c>
+      <c r="G9" t="n">
+        <v>140.188690364466</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.096</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>69335</v>
+        <v>16679</v>
       </c>
       <c r="K9" t="n">
-        <v>10506</v>
+        <v>11671</v>
       </c>
       <c r="L9" t="n">
-        <v>801</v>
+        <v>26</v>
       </c>
       <c r="M9" t="n">
-        <v>1366</v>
+        <v>29</v>
       </c>
       <c r="N9" t="n">
-        <v>3292</v>
+        <v>722</v>
       </c>
       <c r="O9" t="n">
-        <v>49.6234615384615</v>
+        <v>65.1825</v>
       </c>
       <c r="P9" t="n">
-        <v>9.98462726344703</v>
+        <v>5.5361169432872</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.1979319795331</v>
+        <v>3.3293309509454</v>
       </c>
       <c r="R9" t="n">
-        <v>20.4819277108434</v>
+        <v>124.545454545455</v>
       </c>
       <c r="S9" t="n">
-        <v>0.255421686746988</v>
+        <v>0.563636363636364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>83</v>
+      </c>
+      <c r="E10" t="n">
+        <v>81.1518555780108</v>
+      </c>
+      <c r="F10" t="n">
+        <v>86046</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1060.30847214928</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J10" t="n">
+        <v>69335</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10506</v>
+      </c>
+      <c r="L10" t="n">
+        <v>801</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1366</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3292</v>
+      </c>
+      <c r="O10" t="n">
+        <v>49.6234615384615</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.98462726344703</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>13.1979319795331</v>
+      </c>
+      <c r="R10" t="n">
+        <v>20.4819277108434</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.255421686746988</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="n">
         <v>17240</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E11" t="n">
+        <v>334.263994048958</v>
+      </c>
+      <c r="F11" t="n">
         <v>35609</v>
       </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G11" t="n">
+        <v>106.529571338708</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.71</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>32651</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>768</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>192</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M11" t="n">
         <v>303</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>15824</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>68.7501578947368</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>4.22768148216296</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>3.02033713148773</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R11" t="n">
         <v>20</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>0.20952380952381</v>
       </c>
     </row>

--- a/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_5mi.xlsx
+++ b/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_5mi.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">pop</t>
   </si>
   <si>
-    <t xml:space="preserve">pop_sq_mile_5mi</t>
+    <t xml:space="preserve">pop_sq_mile_1mi</t>
   </si>
   <si>
     <t xml:space="preserve">rural_facility</t>
